--- a/数据表备份/talkData.xlsx
+++ b/数据表备份/talkData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D481A58-2724-45BB-AAFD-8EE3192CCD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362F00FF-267B-444B-9594-86371D26B09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>他说他一定会来的，以意想不到的情况出现，猜不透啊。对了，秘书已经在里面了，我这就带你们进去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,418 +549,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>101</v>
       </c>
       <c r="B2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>102</v>
       </c>
       <c r="B3" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>103</v>
       </c>
       <c r="B4" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>104</v>
       </c>
       <c r="B5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>105</v>
       </c>
       <c r="B6" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>106</v>
       </c>
       <c r="B7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>107</v>
+      </c>
       <c r="B8" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>108</v>
+      </c>
       <c r="B9" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B20" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/数据表备份/talkData.xlsx
+++ b/数据表备份/talkData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GGJP\数据表备份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362F00FF-267B-444B-9594-86371D26B09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603A266-0E93-4FFB-B10E-4E3FEF59EEE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,25 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"men_1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"men_2"</t>
-  </si>
-  <si>
-    <t>"men_2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"women_1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"women_2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈哈哈！阿言你今天真好看！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +167,26 @@
   </si>
   <si>
     <t>talkId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>men_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>men_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>women_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>women_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>men_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +553,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,7 +568,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -605,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -629,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -651,7 +652,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -675,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -693,16 +694,16 @@
         <v>1001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -717,16 +718,16 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -741,16 +742,16 @@
         <v>1001</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -771,10 +772,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -792,13 +793,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -817,7 +818,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -841,10 +842,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -861,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -884,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -907,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -930,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -953,10 +954,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -976,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -999,10 +1000,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -1022,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/数据表备份/talkData.xlsx
+++ b/数据表备份/talkData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GGJP\数据表备份\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GGJP\数据表备份\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C603A266-0E93-4FFB-B10E-4E3FEF59EEE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A80272-FDF4-442C-8DE9-ADE79DDDBBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="915" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ggj" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,134 +59,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>men_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>women_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕咕！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>middle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小辉辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小纯洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风铭言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈！阿言你今天真好看！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(望着突然出现的远道而来的两位朋友，你欣喜不已,眼眶不禁红了起来)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当初在群里划水的情景还历历在目，没想到一下子你这小丫头就要嫁人了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我......我还以为你们来不了了，谢谢你们能抽时间来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪的话！你大喜的日子！走出阴霾的日子！我再怎么忙也会来的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有伴娘团吗？我想看看她们的微信......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈，还真是辉哥一贯老色批的作风呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂喂喂！这么直接的吗你，收敛点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿言！！！你怎么能乱跑啊！一下子新娘子不见踪影，吓死我了。快快快，跟我进去里面，大家都快担心死了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫颜</t>
-  </si>
-  <si>
-    <t>紫颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(紫颜有些疑惑的瞟了一眼站在你面前的两位朋友，随即便要将你拽进屋里。)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>......好吧。我前面找不到你的时候，还以为你老毛病又犯了，急得我都上头。我回去跟他们说一下，你快点回来啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫颜，先等一下，他们也是客人，等我几分钟，一会我招待他们进去，你先回去吧。我就是出来透透气。他们对我而言都是很重要的朋友，差不了这几分钟的。可以吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(紫颜说罢叹了口气，转身快步跑回了屋。)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啧啧啧，这个小姐姐好漂亮！阿言你有她微信吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝了！靠，你能不能正经点？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈，那肯定是有的，这事后面再说，我问你们下，陌上你们有联系上吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈？你也没联系上吗？我和他的qq聊天记录还停留在一年前。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他好像前两天还给我发了个大奶子涩图，还挺不错的，回头我发群里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他说他一定会来的，以意想不到的情况出现，猜不透啊。对了，秘书已经在里面了，我这就带你们进去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talkId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>men_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕你说的对！是我们该去救他的时候了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是不能说不像，而是完全没意义的旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有人比我更懂冒险！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我太有才了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的关系更像是合作伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's good！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候伙伴也是一种甜蜜又沉重的负担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你也太重了吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕鸡不讲武德！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are fired！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是每个人能承受的负担都是有限的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕！回来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有咕咕，我也可以的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是咕咕在就好了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是咕咕在……这根本不成问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也不知道现在咕咕怎么样了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道换一条路是否也能走下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过也许一个转角就发现伙伴一直在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕！你等着我这就来救你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕！你等着我这就来救你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>传说很久很久以前每当瞌睡虫魔王降临时，会有带着一只肥鸟的英雄出现打败魔王拯救Trump。</t>
+  </si>
+  <si>
+    <t>什么！Trump先生被瞌睡虫魔王抓去和外星人交易了!</t>
+  </si>
+  <si>
+    <t>就这样在推特的号召下，我们的主角踏上了拯救Trump的路程。</t>
   </si>
   <si>
     <t>men_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>women_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>women_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>men_2</t>
+    <t>没有人比我更懂消毒水！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trump先生，你没事吧！怎么一直是这么个姿势？！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是制作组美术的阴谋！我要建起一堵墙！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像完全不知道在说些什么....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘛，不管怎么样，正如传说中的一样我们的阿言带着咕咕鸡救出来奇奇怪怪的Trump，解放了灯塔小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于瞌睡虫魔王嘛？原来他一直在制作组打瞌睡，以至于并没有他的出场机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的来说真是个皆大欢喜可喜可贺的结局啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉下cast）感谢游玩，欢迎期待咕咕鸡制作组明年下半年中美合拍的林黛玉三拳打死伏地魔！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -365,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -550,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -603,17 +644,17 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -627,17 +668,17 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -648,18 +689,20 @@
         <v>1001</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>104</v>
       </c>
@@ -670,20 +713,20 @@
         <v>1001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>105</v>
       </c>
@@ -694,20 +737,20 @@
         <v>1001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>106</v>
       </c>
@@ -721,313 +764,1077 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4">
         <v>107</v>
       </c>
       <c r="C8" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="4">
         <v>108</v>
       </c>
       <c r="C9" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4">
         <v>109</v>
       </c>
       <c r="C10" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4">
         <v>110</v>
       </c>
       <c r="C11" s="4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4">
         <v>111</v>
       </c>
       <c r="C12" s="4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4">
         <v>112</v>
       </c>
       <c r="C13" s="4">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4">
         <v>113</v>
       </c>
       <c r="C14" s="4">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4">
         <v>114</v>
       </c>
       <c r="C15" s="4">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" s="4">
         <v>115</v>
       </c>
       <c r="C16" s="4">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4">
         <v>116</v>
       </c>
       <c r="C17" s="4">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4">
         <v>117</v>
       </c>
       <c r="C18" s="4">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4">
         <v>118</v>
       </c>
       <c r="C19" s="4">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="4">
         <v>119</v>
       </c>
       <c r="C20" s="4">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>122</v>
+      </c>
+      <c r="B21" s="4">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>123</v>
+      </c>
+      <c r="B22" s="4">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>125</v>
+      </c>
+      <c r="B23" s="4">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>126</v>
+      </c>
+      <c r="B24" s="4">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>127</v>
+      </c>
+      <c r="B25" s="4">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>128</v>
+      </c>
+      <c r="B26" s="4">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>129</v>
+      </c>
+      <c r="B27" s="4">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>130</v>
+      </c>
+      <c r="B28" s="4">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>131</v>
+      </c>
+      <c r="B29" s="4">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>132</v>
+      </c>
+      <c r="B30" s="4">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>133</v>
+      </c>
+      <c r="B31" s="4">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>134</v>
+      </c>
+      <c r="B32" s="4">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>135</v>
+      </c>
+      <c r="B33" s="4">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>136</v>
+      </c>
+      <c r="B34" s="4">
+        <v>133</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>138</v>
+      </c>
+      <c r="B36" s="4">
+        <v>135</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>139</v>
+      </c>
+      <c r="B37" s="4">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>140</v>
+      </c>
+      <c r="B38" s="4">
+        <v>137</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>141</v>
+      </c>
+      <c r="B39" s="4">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>142</v>
+      </c>
+      <c r="B40" s="4">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>143</v>
+      </c>
+      <c r="B41" s="4">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>144</v>
+      </c>
+      <c r="B42" s="4">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>145</v>
+      </c>
+      <c r="B43" s="4">
+        <v>142</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>146</v>
+      </c>
+      <c r="B44" s="4">
+        <v>143</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>147</v>
+      </c>
+      <c r="B45" s="4">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据表备份/talkData.xlsx
+++ b/数据表备份/talkData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GGJP\数据表备份\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A80272-FDF4-442C-8DE9-ADE79DDDBBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED7296-3D7C-41B6-BAAF-885C3076FC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="915" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ggj" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ggj!$E$1:$E$91</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
   <si>
     <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>men_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>women_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旁白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +186,6 @@
     <t>就这样在推特的号召下，我们的主角踏上了拯救Trump的路程。</t>
   </si>
   <si>
-    <t>men_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有人比我更懂消毒水！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,11 +214,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（拉下cast）感谢游玩，欢迎期待咕咕鸡制作组明年下半年中美合拍的林黛玉三拳打死伏地魔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +593,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,13 +640,13 @@
         <v>1001</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -668,13 +667,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -689,16 +688,16 @@
         <v>1001</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -713,16 +712,16 @@
         <v>1001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -737,16 +736,16 @@
         <v>1001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -761,13 +760,13 @@
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -776,7 +775,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4">
         <v>107</v>
@@ -785,13 +784,13 @@
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -800,7 +799,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4">
         <v>108</v>
@@ -812,19 +811,19 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4">
         <v>109</v>
@@ -833,22 +832,22 @@
         <v>1002</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4">
         <v>110</v>
@@ -860,19 +859,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4">
         <v>111</v>
@@ -881,21 +880,21 @@
         <v>1003</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4">
         <v>112</v>
@@ -904,21 +903,21 @@
         <v>1004</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4">
         <v>113</v>
@@ -927,21 +926,21 @@
         <v>1004</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4">
         <v>114</v>
@@ -950,21 +949,21 @@
         <v>1005</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4">
         <v>115</v>
@@ -973,21 +972,21 @@
         <v>1005</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4">
         <v>116</v>
@@ -996,13 +995,13 @@
         <v>1006</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>8</v>
@@ -1010,7 +1009,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4">
         <v>117</v>
@@ -1019,21 +1018,21 @@
         <v>1007</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4">
         <v>118</v>
@@ -1042,21 +1041,21 @@
         <v>1007</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="4">
         <v>119</v>
@@ -1065,21 +1064,21 @@
         <v>1008</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="4">
         <v>120</v>
@@ -1088,21 +1087,21 @@
         <v>1008</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="4">
         <v>121</v>
@@ -1111,21 +1110,21 @@
         <v>1008</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="4">
         <v>122</v>
@@ -1134,13 +1133,13 @@
         <v>1009</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1148,7 +1147,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="4">
         <v>123</v>
@@ -1157,21 +1156,21 @@
         <v>1010</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B25" s="4">
         <v>124</v>
@@ -1180,21 +1179,21 @@
         <v>1010</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4">
         <v>125</v>
@@ -1203,21 +1202,21 @@
         <v>1011</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B27" s="4">
         <v>126</v>
@@ -1226,21 +1225,21 @@
         <v>1012</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B28" s="4">
         <v>127</v>
@@ -1249,21 +1248,21 @@
         <v>1013</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="4">
         <v>128</v>
@@ -1272,21 +1271,21 @@
         <v>1014</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="4">
         <v>129</v>
@@ -1295,13 +1294,13 @@
         <v>1014</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -1309,7 +1308,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4">
         <v>130</v>
@@ -1318,13 +1317,13 @@
         <v>1015</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -1332,7 +1331,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" s="4">
         <v>131</v>
@@ -1341,21 +1340,21 @@
         <v>1015</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4">
         <v>132</v>
@@ -1364,21 +1363,21 @@
         <v>1015</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B34" s="4">
         <v>133</v>
@@ -1387,21 +1386,21 @@
         <v>1016</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4">
         <v>134</v>
@@ -1410,21 +1409,21 @@
         <v>1016</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B36" s="4">
         <v>135</v>
@@ -1433,21 +1432,21 @@
         <v>1016</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" s="4">
         <v>136</v>
@@ -1456,21 +1455,21 @@
         <v>1016</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4">
         <v>137</v>
@@ -1479,21 +1478,21 @@
         <v>1016</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" s="4">
         <v>138</v>
@@ -1502,21 +1501,21 @@
         <v>1016</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40" s="4">
         <v>139</v>
@@ -1525,21 +1524,21 @@
         <v>1016</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="4">
         <v>140</v>
@@ -1548,13 +1547,13 @@
         <v>1017</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -1562,7 +1561,7 @@
     </row>
     <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B42" s="4">
         <v>141</v>
@@ -1571,13 +1570,13 @@
         <v>1017</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -1585,7 +1584,7 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B43" s="4">
         <v>142</v>
@@ -1594,13 +1593,13 @@
         <v>1017</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>8</v>
@@ -1608,7 +1607,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" s="4">
         <v>143</v>
@@ -1617,21 +1616,21 @@
         <v>1017</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45" s="4">
         <v>144</v>
@@ -1640,13 +1639,13 @@
         <v>1017</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -1837,6 +1836,7 @@
       <c r="B91" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E91" xr:uid="{EA16FE45-5BA2-4262-851E-D200006805AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
